--- a/FusionPCB_Files/BOM_r02.xlsx
+++ b/FusionPCB_Files/BOM_r02.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamming6123/Documents/SpaceTech_GARAGE/KiCad/rsp02_LoadSW_OCP_Circuit_v1_2/FusionPCB_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F8693-B20C-B347-BD4A-977E1769D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D01EFD-88D7-8641-AC07-6FB25E5A89D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" BOM Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1107,13 +1118,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="116.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.140625" style="1"/>
